--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okwasna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5EB37B-100F-44F2-8576-50A6134CB9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB8066-644E-4087-89DA-CE36F10816BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3573EC3D-D877-47D2-9A92-1D54094D1EF0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="27">
   <si>
     <t>Data</t>
   </si>
@@ -1291,338 +1291,6 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Suma sprzedaży wg płci</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dane!$M$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Kobieta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0D46-449B-8D9B-4ABF13B0E979}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0D46-449B-8D9B-4ABF13B0E979}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dane!$L$14:$L$15</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Monitor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dane!$M$14:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>16100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2964</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D46-449B-8D9B-4ABF13B0E979}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2183,6 +1851,322 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Suma sprzedaży wg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> płci</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5FFA-4289-AB48-DB737AA45FD1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dane!$Q$13:$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Kobieta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mężczyzna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dane!$R$13:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>62241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FFA-4289-AB48-DB737AA45FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2224,8 +2208,42 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2773,7 +2791,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2784,7 +2802,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2797,7 +2815,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -2814,7 +2832,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2830,7 +2848,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2874,20 +2892,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2896,13 +2914,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2914,10 +2932,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2926,17 +2944,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3040,8 +3057,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3131,20 +3154,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3157,17 +3180,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3199,7 +3211,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3208,13 +3220,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3268,14 +3281,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3332,7 +3351,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3383,6 +3402,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3393,12 +3419,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3436,7 +3469,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3479,22 +3512,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3599,8 +3633,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3732,19 +3766,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3817,23 +3852,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127718</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1323439</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>13930</xdr:rowOff>
+      <xdr:rowOff>118421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57867</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>179235</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1255842</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78948</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
+        <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A88EAD-F60D-140D-7562-5B43FF5C6A6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45372B5-0A1E-9F7E-434C-B8171860554B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,23 +3888,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>658556</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>21303</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1098177</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590959</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>183535</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3">
+        <xdr:cNvPr id="5" name="Wykres 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45372B5-0A1E-9F7E-434C-B8171860554B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5B2B88-030C-800F-72BD-9252164EDBB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5619,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C73769-9E7E-4C87-8473-E1C7C8553FFA}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6215,11 +6250,16 @@
       <c r="N13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R13"/>
+      <c r="Q13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="4">
+        <v>62241</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45841</v>
       </c>
@@ -6261,7 +6301,12 @@
       <c r="N14" s="4">
         <v>5411</v>
       </c>
-      <c r="R14"/>
+      <c r="Q14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="4">
+        <v>40239</v>
+      </c>
       <c r="S14"/>
       <c r="T14"/>
     </row>
